--- a/bdd_excel/Creations.xlsx
+++ b/bdd_excel/Creations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucap\Desktop\Ecole\ENSEIRB\S7\SGBD\Projet\BDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florianbour/Desktop/ENSEIRB/2A/SGBD/sgbd-jeux/bdd_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5D6238-177C-4E2A-8DD8-0D45909EE22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7D1AFF-A8B0-2A40-BF0E-3D695D3EC211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{839D294B-6E5B-4FDA-A688-0BB118F97B11}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28240" windowHeight="16580" xr2:uid="{839D294B-6E5B-4FDA-A688-0BB118F97B11}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -396,18 +396,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCA501C-9AC0-4FCF-BB0C-3B9C2D770E57}">
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -434,8 +434,12 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" t="str">
+        <f>IF(COUNTIFS($A$2:$A498,$A2,$B$2:$B498,$B2) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -448,8 +452,12 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" t="str">
+        <f>IF(COUNTIFS($A$2:$A499,$A3,$B$2:$B499,$B3) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -462,8 +470,12 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" t="str">
+        <f>IF(COUNTIFS($A$2:$A500,$A4,$B$2:$B500,$B4) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -476,8 +488,12 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" t="str">
+        <f>IF(COUNTIFS($A$2:$A501,$A5,$B$2:$B501,$B5) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -490,8 +506,12 @@
       <c r="D6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6" t="str">
+        <f>IF(COUNTIFS($A$2:$A502,$A6,$B$2:$B502,$B6) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -504,8 +524,12 @@
       <c r="D7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7" t="str">
+        <f>IF(COUNTIFS($A$2:$A503,$A7,$B$2:$B503,$B7) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -518,8 +542,12 @@
       <c r="D8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8" t="str">
+        <f>IF(COUNTIFS($A$2:$A504,$A8,$B$2:$B504,$B8) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -532,8 +560,12 @@
       <c r="D9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9" t="str">
+        <f>IF(COUNTIFS($A$2:$A505,$A9,$B$2:$B505,$B9) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -546,8 +578,12 @@
       <c r="D10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10" t="str">
+        <f>IF(COUNTIFS($A$2:$A506,$A10,$B$2:$B506,$B10) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -560,8 +596,12 @@
       <c r="D11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11" t="str">
+        <f>IF(COUNTIFS($A$2:$A507,$A11,$B$2:$B507,$B11) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -574,8 +614,12 @@
       <c r="D12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12" t="str">
+        <f>IF(COUNTIFS($A$2:$A508,$A12,$B$2:$B508,$B12) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -588,8 +632,12 @@
       <c r="D13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13" t="str">
+        <f>IF(COUNTIFS($A$2:$A509,$A13,$B$2:$B509,$B13) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -602,8 +650,12 @@
       <c r="D14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14" t="str">
+        <f>IF(COUNTIFS($A$2:$A510,$A14,$B$2:$B510,$B14) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -616,8 +668,12 @@
       <c r="D15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15" t="str">
+        <f>IF(COUNTIFS($A$2:$A511,$A15,$B$2:$B511,$B15) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -630,8 +686,12 @@
       <c r="D16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16" t="str">
+        <f>IF(COUNTIFS($A$2:$A512,$A16,$B$2:$B512,$B16) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -644,8 +704,12 @@
       <c r="D17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17" t="str">
+        <f>IF(COUNTIFS($A$2:$A513,$A17,$B$2:$B513,$B17) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -658,8 +722,12 @@
       <c r="D18">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18" t="str">
+        <f>IF(COUNTIFS($A$2:$A514,$A18,$B$2:$B514,$B18) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -672,8 +740,12 @@
       <c r="D19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19" t="str">
+        <f>IF(COUNTIFS($A$2:$A515,$A19,$B$2:$B515,$B19) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -686,8 +758,12 @@
       <c r="D20">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20" t="str">
+        <f>IF(COUNTIFS($A$2:$A516,$A20,$B$2:$B516,$B20) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -700,8 +776,12 @@
       <c r="D21">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21" t="str">
+        <f>IF(COUNTIFS($A$2:$A517,$A21,$B$2:$B517,$B21) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>18</v>
       </c>
@@ -714,8 +794,12 @@
       <c r="D22">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22" t="str">
+        <f>IF(COUNTIFS($A$2:$A518,$A22,$B$2:$B518,$B22) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -728,8 +812,12 @@
       <c r="D23">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23" t="str">
+        <f>IF(COUNTIFS($A$2:$A519,$A23,$B$2:$B519,$B23) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>19</v>
       </c>
@@ -742,8 +830,12 @@
       <c r="D24">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E24" t="str">
+        <f>IF(COUNTIFS($A$2:$A520,$A24,$B$2:$B520,$B24) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>20</v>
       </c>
@@ -756,8 +848,12 @@
       <c r="D25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E25" t="str">
+        <f>IF(COUNTIFS($A$2:$A521,$A25,$B$2:$B521,$B25) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -770,8 +866,12 @@
       <c r="D26">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E26" t="str">
+        <f>IF(COUNTIFS($A$2:$A522,$A26,$B$2:$B522,$B26) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>21</v>
       </c>
@@ -784,8 +884,12 @@
       <c r="D27">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E27" t="str">
+        <f>IF(COUNTIFS($A$2:$A523,$A27,$B$2:$B523,$B27) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>22</v>
       </c>
@@ -798,8 +902,12 @@
       <c r="D28">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E28" t="str">
+        <f>IF(COUNTIFS($A$2:$A524,$A28,$B$2:$B524,$B28) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>23</v>
       </c>
@@ -812,8 +920,12 @@
       <c r="D29">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E29" t="str">
+        <f>IF(COUNTIFS($A$2:$A525,$A29,$B$2:$B525,$B29) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>24</v>
       </c>
@@ -826,8 +938,12 @@
       <c r="D30">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E30" t="str">
+        <f>IF(COUNTIFS($A$2:$A526,$A30,$B$2:$B526,$B30) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
@@ -840,8 +956,12 @@
       <c r="D31">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E31" t="str">
+        <f>IF(COUNTIFS($A$2:$A527,$A31,$B$2:$B527,$B31) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>25</v>
       </c>
@@ -854,8 +974,12 @@
       <c r="D32">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E32" t="str">
+        <f>IF(COUNTIFS($A$2:$A528,$A32,$B$2:$B528,$B32) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>26</v>
       </c>
@@ -868,8 +992,12 @@
       <c r="D33">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E33" t="str">
+        <f>IF(COUNTIFS($A$2:$A529,$A33,$B$2:$B529,$B33) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>27</v>
       </c>
@@ -882,8 +1010,12 @@
       <c r="D34">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E34" t="str">
+        <f>IF(COUNTIFS($A$2:$A530,$A34,$B$2:$B530,$B34) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>28</v>
       </c>
@@ -896,8 +1028,12 @@
       <c r="D35">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E35" t="str">
+        <f>IF(COUNTIFS($A$2:$A531,$A35,$B$2:$B531,$B35) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>29</v>
       </c>
@@ -910,8 +1046,12 @@
       <c r="D36">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E36" t="str">
+        <f>IF(COUNTIFS($A$2:$A532,$A36,$B$2:$B532,$B36) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>21</v>
       </c>
@@ -924,8 +1064,12 @@
       <c r="D37">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E37" t="str">
+        <f>IF(COUNTIFS($A$2:$A533,$A37,$B$2:$B533,$B37) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>30</v>
       </c>
@@ -938,8 +1082,12 @@
       <c r="D38">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E38" t="str">
+        <f>IF(COUNTIFS($A$2:$A534,$A38,$B$2:$B534,$B38) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>31</v>
       </c>
@@ -952,8 +1100,12 @@
       <c r="D39">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E39" t="str">
+        <f>IF(COUNTIFS($A$2:$A535,$A39,$B$2:$B535,$B39) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>32</v>
       </c>
@@ -966,8 +1118,12 @@
       <c r="D40">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E40" t="str">
+        <f>IF(COUNTIFS($A$2:$A536,$A40,$B$2:$B536,$B40) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>33</v>
       </c>
@@ -980,8 +1136,12 @@
       <c r="D41">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E41" t="str">
+        <f>IF(COUNTIFS($A$2:$A537,$A41,$B$2:$B537,$B41) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -994,8 +1154,12 @@
       <c r="D42">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E42" t="str">
+        <f>IF(COUNTIFS($A$2:$A538,$A42,$B$2:$B538,$B42) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>34</v>
       </c>
@@ -1008,8 +1172,12 @@
       <c r="D43">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E43" t="str">
+        <f>IF(COUNTIFS($A$2:$A539,$A43,$B$2:$B539,$B43) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>35</v>
       </c>
@@ -1022,8 +1190,12 @@
       <c r="D44">
         <v>17</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E44" t="str">
+        <f>IF(COUNTIFS($A$2:$A540,$A44,$B$2:$B540,$B44) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>36</v>
       </c>
@@ -1036,8 +1208,12 @@
       <c r="D45">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E45" t="str">
+        <f>IF(COUNTIFS($A$2:$A541,$A45,$B$2:$B541,$B45) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>37</v>
       </c>
@@ -1050,8 +1226,12 @@
       <c r="D46">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E46" t="str">
+        <f>IF(COUNTIFS($A$2:$A542,$A46,$B$2:$B542,$B46) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>38</v>
       </c>
@@ -1064,8 +1244,12 @@
       <c r="D47">
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E47" t="str">
+        <f>IF(COUNTIFS($A$2:$A543,$A47,$B$2:$B543,$B47) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>39</v>
       </c>
@@ -1078,8 +1262,12 @@
       <c r="D48">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E48" t="str">
+        <f>IF(COUNTIFS($A$2:$A544,$A48,$B$2:$B544,$B48) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>30</v>
       </c>
@@ -1092,8 +1280,12 @@
       <c r="D49">
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E49" t="str">
+        <f>IF(COUNTIFS($A$2:$A545,$A49,$B$2:$B545,$B49) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>40</v>
       </c>
@@ -1106,8 +1298,12 @@
       <c r="D50">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E50" t="str">
+        <f>IF(COUNTIFS($A$2:$A546,$A50,$B$2:$B546,$B50) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>41</v>
       </c>
@@ -1120,8 +1316,12 @@
       <c r="D51">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E51" t="str">
+        <f>IF(COUNTIFS($A$2:$A547,$A51,$B$2:$B547,$B51) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1</v>
       </c>
@@ -1134,8 +1334,12 @@
       <c r="D52">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E52" t="str">
+        <f>IF(COUNTIFS($A$2:$A548,$A52,$B$2:$B548,$B52) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>42</v>
       </c>
@@ -1148,8 +1352,12 @@
       <c r="D53">
         <v>21</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E53" t="str">
+        <f>IF(COUNTIFS($A$2:$A549,$A53,$B$2:$B549,$B53) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>43</v>
       </c>
@@ -1162,8 +1370,12 @@
       <c r="D54">
         <v>22</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E54" t="str">
+        <f>IF(COUNTIFS($A$2:$A550,$A54,$B$2:$B550,$B54) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>36</v>
       </c>
@@ -1176,8 +1388,12 @@
       <c r="D55">
         <v>22</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E55" t="str">
+        <f>IF(COUNTIFS($A$2:$A551,$A55,$B$2:$B551,$B55) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>44</v>
       </c>
@@ -1190,8 +1406,12 @@
       <c r="D56">
         <v>23</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E56" t="str">
+        <f>IF(COUNTIFS($A$2:$A552,$A56,$B$2:$B552,$B56) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>45</v>
       </c>
@@ -1204,8 +1424,12 @@
       <c r="D57">
         <v>23</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E57" t="str">
+        <f>IF(COUNTIFS($A$2:$A553,$A57,$B$2:$B553,$B57) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>46</v>
       </c>
@@ -1218,8 +1442,12 @@
       <c r="D58">
         <v>23</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E58" t="str">
+        <f>IF(COUNTIFS($A$2:$A554,$A58,$B$2:$B554,$B58) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>47</v>
       </c>
@@ -1232,8 +1460,12 @@
       <c r="D59">
         <v>24</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E59" t="str">
+        <f>IF(COUNTIFS($A$2:$A555,$A59,$B$2:$B555,$B59) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>48</v>
       </c>
@@ -1246,8 +1478,12 @@
       <c r="D60">
         <v>25</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E60" t="str">
+        <f>IF(COUNTIFS($A$2:$A556,$A60,$B$2:$B556,$B60) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>49</v>
       </c>
@@ -1260,8 +1496,12 @@
       <c r="D61">
         <v>25</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E61" t="str">
+        <f>IF(COUNTIFS($A$2:$A557,$A61,$B$2:$B557,$B61) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>5</v>
       </c>
@@ -1274,8 +1514,12 @@
       <c r="D62">
         <v>26</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E62" t="str">
+        <f>IF(COUNTIFS($A$2:$A558,$A62,$B$2:$B558,$B62) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>50</v>
       </c>
@@ -1288,8 +1532,12 @@
       <c r="D63">
         <v>26</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E63" t="str">
+        <f>IF(COUNTIFS($A$2:$A559,$A63,$B$2:$B559,$B63) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>38</v>
       </c>
@@ -1302,8 +1550,12 @@
       <c r="D64">
         <v>26</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E64" t="str">
+        <f>IF(COUNTIFS($A$2:$A560,$A64,$B$2:$B560,$B64) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>51</v>
       </c>
@@ -1316,8 +1568,12 @@
       <c r="D65">
         <v>27</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E65" t="str">
+        <f>IF(COUNTIFS($A$2:$A561,$A65,$B$2:$B561,$B65) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>52</v>
       </c>
@@ -1330,8 +1586,12 @@
       <c r="D66">
         <v>27</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E66" t="str">
+        <f>IF(COUNTIFS($A$2:$A562,$A66,$B$2:$B562,$B66) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>5</v>
       </c>
@@ -1344,8 +1604,12 @@
       <c r="D67">
         <v>28</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E67" t="str">
+        <f>IF(COUNTIFS($A$2:$A563,$A67,$B$2:$B563,$B67) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>53</v>
       </c>
@@ -1358,8 +1622,12 @@
       <c r="D68">
         <v>28</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E68" t="str">
+        <f>IF(COUNTIFS($A$2:$A564,$A68,$B$2:$B564,$B68) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>54</v>
       </c>
@@ -1372,8 +1640,12 @@
       <c r="D69">
         <v>28</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E69" t="str">
+        <f>IF(COUNTIFS($A$2:$A565,$A69,$B$2:$B565,$B69) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>55</v>
       </c>
@@ -1386,8 +1658,12 @@
       <c r="D70">
         <v>29</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E70" t="str">
+        <f>IF(COUNTIFS($A$2:$A566,$A70,$B$2:$B566,$B70) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>56</v>
       </c>
@@ -1400,8 +1676,12 @@
       <c r="D71">
         <v>29</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E71" t="str">
+        <f>IF(COUNTIFS($A$2:$A567,$A71,$B$2:$B567,$B71) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>57</v>
       </c>
@@ -1414,8 +1694,12 @@
       <c r="D72">
         <v>30</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E72" t="str">
+        <f>IF(COUNTIFS($A$2:$A568,$A72,$B$2:$B568,$B72) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>7</v>
       </c>
@@ -1428,8 +1712,12 @@
       <c r="D73">
         <v>30</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E73" t="str">
+        <f>IF(COUNTIFS($A$2:$A569,$A73,$B$2:$B569,$B73) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>58</v>
       </c>
@@ -1442,8 +1730,12 @@
       <c r="D74">
         <v>31</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E74" t="str">
+        <f>IF(COUNTIFS($A$2:$A570,$A74,$B$2:$B570,$B74) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>59</v>
       </c>
@@ -1456,8 +1748,12 @@
       <c r="D75">
         <v>31</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E75" t="str">
+        <f>IF(COUNTIFS($A$2:$A571,$A75,$B$2:$B571,$B75) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>60</v>
       </c>
@@ -1470,8 +1766,12 @@
       <c r="D76">
         <v>31</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E76" t="str">
+        <f>IF(COUNTIFS($A$2:$A572,$A76,$B$2:$B572,$B76) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>61</v>
       </c>
@@ -1484,8 +1784,12 @@
       <c r="D77">
         <v>32</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E77" t="str">
+        <f>IF(COUNTIFS($A$2:$A573,$A77,$B$2:$B573,$B77) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>62</v>
       </c>
@@ -1498,8 +1802,12 @@
       <c r="D78">
         <v>32</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E78" t="str">
+        <f>IF(COUNTIFS($A$2:$A574,$A78,$B$2:$B574,$B78) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>63</v>
       </c>
@@ -1512,8 +1820,12 @@
       <c r="D79">
         <v>32</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E79" t="str">
+        <f>IF(COUNTIFS($A$2:$A575,$A79,$B$2:$B575,$B79) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>64</v>
       </c>
@@ -1526,8 +1838,12 @@
       <c r="D80">
         <v>33</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E80" t="str">
+        <f>IF(COUNTIFS($A$2:$A576,$A80,$B$2:$B576,$B80) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>65</v>
       </c>
@@ -1540,8 +1856,12 @@
       <c r="D81">
         <v>33</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E81" t="str">
+        <f>IF(COUNTIFS($A$2:$A577,$A81,$B$2:$B577,$B81) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>66</v>
       </c>
@@ -1554,8 +1874,12 @@
       <c r="D82">
         <v>33</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E82" t="str">
+        <f>IF(COUNTIFS($A$2:$A578,$A82,$B$2:$B578,$B82) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>67</v>
       </c>
@@ -1568,8 +1892,12 @@
       <c r="D83">
         <v>34</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E83" t="str">
+        <f>IF(COUNTIFS($A$2:$A579,$A83,$B$2:$B579,$B83) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>68</v>
       </c>
@@ -1582,8 +1910,12 @@
       <c r="D84">
         <v>34</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E84" t="str">
+        <f>IF(COUNTIFS($A$2:$A580,$A84,$B$2:$B580,$B84) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>54</v>
       </c>
@@ -1596,8 +1928,12 @@
       <c r="D85">
         <v>34</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E85" t="str">
+        <f>IF(COUNTIFS($A$2:$A581,$A85,$B$2:$B581,$B85) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>69</v>
       </c>
@@ -1610,8 +1946,12 @@
       <c r="D86">
         <v>35</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E86" t="str">
+        <f>IF(COUNTIFS($A$2:$A582,$A86,$B$2:$B582,$B86) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>70</v>
       </c>
@@ -1624,8 +1964,12 @@
       <c r="D87">
         <v>35</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E87" t="str">
+        <f>IF(COUNTIFS($A$2:$A583,$A87,$B$2:$B583,$B87) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>71</v>
       </c>
@@ -1638,8 +1982,12 @@
       <c r="D88">
         <v>36</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E88" t="str">
+        <f>IF(COUNTIFS($A$2:$A584,$A88,$B$2:$B584,$B88) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>72</v>
       </c>
@@ -1652,8 +2000,12 @@
       <c r="D89">
         <v>36</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E89" t="str">
+        <f>IF(COUNTIFS($A$2:$A585,$A89,$B$2:$B585,$B89) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>73</v>
       </c>
@@ -1666,8 +2018,12 @@
       <c r="D90">
         <v>37</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E90" t="str">
+        <f>IF(COUNTIFS($A$2:$A586,$A90,$B$2:$B586,$B90) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>74</v>
       </c>
@@ -1680,8 +2036,12 @@
       <c r="D91">
         <v>37</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E91" t="str">
+        <f>IF(COUNTIFS($A$2:$A587,$A91,$B$2:$B587,$B91) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>75</v>
       </c>
@@ -1694,8 +2054,12 @@
       <c r="D92">
         <v>38</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E92" t="str">
+        <f>IF(COUNTIFS($A$2:$A588,$A92,$B$2:$B588,$B92) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>76</v>
       </c>
@@ -1708,8 +2072,12 @@
       <c r="D93">
         <v>38</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E93" t="str">
+        <f>IF(COUNTIFS($A$2:$A589,$A93,$B$2:$B589,$B93) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>77</v>
       </c>
@@ -1722,8 +2090,12 @@
       <c r="D94">
         <v>38</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E94" t="str">
+        <f>IF(COUNTIFS($A$2:$A590,$A94,$B$2:$B590,$B94) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>57</v>
       </c>
@@ -1736,8 +2108,12 @@
       <c r="D95">
         <v>39</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E95" t="str">
+        <f>IF(COUNTIFS($A$2:$A591,$A95,$B$2:$B591,$B95) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>78</v>
       </c>
@@ -1750,8 +2126,12 @@
       <c r="D96">
         <v>39</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E96" t="str">
+        <f>IF(COUNTIFS($A$2:$A592,$A96,$B$2:$B592,$B96) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>79</v>
       </c>
@@ -1764,8 +2144,12 @@
       <c r="D97">
         <v>40</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E97" t="str">
+        <f>IF(COUNTIFS($A$2:$A593,$A97,$B$2:$B593,$B97) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>80</v>
       </c>
@@ -1778,8 +2162,12 @@
       <c r="D98">
         <v>40</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E98" t="str">
+        <f>IF(COUNTIFS($A$2:$A594,$A98,$B$2:$B594,$B98) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>81</v>
       </c>
@@ -1792,8 +2180,12 @@
       <c r="D99">
         <v>41</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E99" t="str">
+        <f>IF(COUNTIFS($A$2:$A595,$A99,$B$2:$B595,$B99) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>82</v>
       </c>
@@ -1806,8 +2198,12 @@
       <c r="D100">
         <v>41</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E100" t="str">
+        <f>IF(COUNTIFS($A$2:$A596,$A100,$B$2:$B596,$B100) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>5</v>
       </c>
@@ -1820,8 +2216,12 @@
       <c r="D101">
         <v>42</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E101" t="str">
+        <f>IF(COUNTIFS($A$2:$A597,$A101,$B$2:$B597,$B101) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>83</v>
       </c>
@@ -1834,8 +2234,12 @@
       <c r="D102">
         <v>42</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E102" t="str">
+        <f>IF(COUNTIFS($A$2:$A598,$A102,$B$2:$B598,$B102) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>84</v>
       </c>
@@ -1848,8 +2252,12 @@
       <c r="D103">
         <v>43</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E103" t="str">
+        <f>IF(COUNTIFS($A$2:$A599,$A103,$B$2:$B599,$B103) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>78</v>
       </c>
@@ -1862,8 +2270,12 @@
       <c r="D104">
         <v>43</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E104" t="str">
+        <f>IF(COUNTIFS($A$2:$A600,$A104,$B$2:$B600,$B104) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>9</v>
       </c>
@@ -1876,8 +2288,12 @@
       <c r="D105">
         <v>44</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E105" t="str">
+        <f>IF(COUNTIFS($A$2:$A601,$A105,$B$2:$B601,$B105) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>85</v>
       </c>
@@ -1890,8 +2306,12 @@
       <c r="D106">
         <v>44</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E106" t="str">
+        <f>IF(COUNTIFS($A$2:$A602,$A106,$B$2:$B602,$B106) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>86</v>
       </c>
@@ -1904,8 +2324,12 @@
       <c r="D107">
         <v>45</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E107" t="str">
+        <f>IF(COUNTIFS($A$2:$A603,$A107,$B$2:$B603,$B107) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>87</v>
       </c>
@@ -1918,8 +2342,12 @@
       <c r="D108">
         <v>45</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E108" t="str">
+        <f>IF(COUNTIFS($A$2:$A604,$A108,$B$2:$B604,$B108) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1</v>
       </c>
@@ -1932,8 +2360,12 @@
       <c r="D109">
         <v>46</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E109" t="str">
+        <f>IF(COUNTIFS($A$2:$A605,$A109,$B$2:$B605,$B109) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>5</v>
       </c>
@@ -1946,8 +2378,12 @@
       <c r="D110">
         <v>46</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E110" t="str">
+        <f>IF(COUNTIFS($A$2:$A606,$A110,$B$2:$B606,$B110) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>34</v>
       </c>
@@ -1960,8 +2396,12 @@
       <c r="D111">
         <v>46</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E111" t="str">
+        <f>IF(COUNTIFS($A$2:$A607,$A111,$B$2:$B607,$B111) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>88</v>
       </c>
@@ -1974,8 +2414,12 @@
       <c r="D112">
         <v>47</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E112" t="str">
+        <f>IF(COUNTIFS($A$2:$A608,$A112,$B$2:$B608,$B112) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>89</v>
       </c>
@@ -1988,8 +2432,12 @@
       <c r="D113">
         <v>47</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E113" t="str">
+        <f>IF(COUNTIFS($A$2:$A609,$A113,$B$2:$B609,$B113) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>90</v>
       </c>
@@ -2002,8 +2450,12 @@
       <c r="D114">
         <v>48</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E114" t="str">
+        <f>IF(COUNTIFS($A$2:$A610,$A114,$B$2:$B610,$B114) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>34</v>
       </c>
@@ -2016,8 +2468,12 @@
       <c r="D115">
         <v>48</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E115" t="str">
+        <f>IF(COUNTIFS($A$2:$A611,$A115,$B$2:$B611,$B115) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>91</v>
       </c>
@@ -2030,8 +2486,12 @@
       <c r="D116">
         <v>49</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E116" t="str">
+        <f>IF(COUNTIFS($A$2:$A612,$A116,$B$2:$B612,$B116) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>24</v>
       </c>
@@ -2044,8 +2504,12 @@
       <c r="D117">
         <v>49</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E117" t="str">
+        <f>IF(COUNTIFS($A$2:$A613,$A117,$B$2:$B613,$B117) &gt;1, "En double", "")</f>
+        <v>En double</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>92</v>
       </c>
@@ -2058,8 +2522,12 @@
       <c r="D118">
         <v>50</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E118" t="str">
+        <f>IF(COUNTIFS($A$2:$A614,$A118,$B$2:$B614,$B118) &gt;1, "En double", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>93</v>
       </c>
@@ -2071,6 +2539,10 @@
       </c>
       <c r="D119">
         <v>50</v>
+      </c>
+      <c r="E119" t="str">
+        <f>IF(COUNTIFS($A$2:$A615,$A119,$B$2:$B615,$B119) &gt;1, "En double", "")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
